--- a/Assignment Datasets/Short_List.xlsx
+++ b/Assignment Datasets/Short_List.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hackerman\Dropbox\Psychological_Measurement\Assignment Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hackerman\Dropbox\Student_Materials\Assignment Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6E695-D24B-4CA1-9A8F-4F63BA5AD7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D9A52E-0808-4CE0-BA3D-5E9F4CAD1BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1470" windowWidth="16650" windowHeight="11385" xr2:uid="{08F8A5EE-0D31-42C5-8B85-7EDA186AF7C5}"/>
+    <workbookView xWindow="34110" yWindow="4005" windowWidth="16650" windowHeight="11385" xr2:uid="{08F8A5EE-0D31-42C5-8B85-7EDA186AF7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -385,30 +386,6 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="9" tint="0.59999389629810485"/>
@@ -645,6 +622,30 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -659,19 +660,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30A7F464-61EB-43B9-89C4-ED712BF6BF8E}" name="Table3" displayName="Table3" ref="A1:K8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30A7F464-61EB-43B9-89C4-ED712BF6BF8E}" name="Table3" displayName="Table3" ref="A1:K8" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:K8" xr:uid="{30A7F464-61EB-43B9-89C4-ED712BF6BF8E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7EBF50AF-5D18-4190-8525-3A4102B003D9}" name="Construct(s)" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2E7B9646-000A-40F9-B483-F3F2B00C3489}" name="Sub-Factors" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{07A7913E-ADFE-423B-ACAB-07E7969E7F54}" name="Scale" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4168AE23-F1F5-4529-929B-7244887D3192}" name="Desc" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{7D77E827-FC8C-4215-A00B-6043F527CBFA}" name="Items" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0E57A66C-06B5-40E9-85F7-5C7E56279A3E}" name="N" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{7069BBA9-40E2-4C76-9BC0-0078B36F2CE2}" name="Covariates" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{322E5DF3-D342-4917-A470-F71C96175004}" name="Date" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{4579A170-4611-4602-B7C6-559D6DE4E05E}" name="Paper" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{C35A2A16-D73B-4C50-B6C1-24CE142E9B5F}" name="Dataset" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7EBF50AF-5D18-4190-8525-3A4102B003D9}" name="Construct(s)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2E7B9646-000A-40F9-B483-F3F2B00C3489}" name="Sub-Factors" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{07A7913E-ADFE-423B-ACAB-07E7969E7F54}" name="Scale" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4168AE23-F1F5-4529-929B-7244887D3192}" name="Desc" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{7D77E827-FC8C-4215-A00B-6043F527CBFA}" name="Items" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0E57A66C-06B5-40E9-85F7-5C7E56279A3E}" name="N" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{7069BBA9-40E2-4C76-9BC0-0078B36F2CE2}" name="Covariates" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{322E5DF3-D342-4917-A470-F71C96175004}" name="Date" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4579A170-4611-4602-B7C6-559D6DE4E05E}" name="Paper" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{C35A2A16-D73B-4C50-B6C1-24CE142E9B5F}" name="Dataset" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{C9DE6795-51D8-425A-AE37-D3F3D21AAA18}" name="Link to Page" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -978,7 +979,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assignment Datasets/Short_List.xlsx
+++ b/Assignment Datasets/Short_List.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hackerman\Dropbox\Student_Materials\Assignment Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D9A52E-0808-4CE0-BA3D-5E9F4CAD1BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73F3160-E443-4404-BEFF-9D42598FD0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34110" yWindow="4005" windowWidth="16650" windowHeight="11385" xr2:uid="{08F8A5EE-0D31-42C5-8B85-7EDA186AF7C5}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="16650" windowHeight="11385" xr2:uid="{08F8A5EE-0D31-42C5-8B85-7EDA186AF7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,4 +1282,18 @@
     <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD19065-5DF8-4506-A1A0-C0733629A623}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>